--- a/BVP.xlsx
+++ b/BVP.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Stat_Dep-main\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC330E96-C62A-4618-898F-8C73A742A029}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="7116" windowWidth="23256" windowHeight="7164" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regresoriai" sheetId="2" r:id="rId1"/>
@@ -20,7 +26,7 @@
     <definedName name="JR_PAGE_ANCHOR_0_1" localSheetId="3">Regresoriai_men!#REF!</definedName>
     <definedName name="JR_PAGE_ANCHOR_0_1">Regresoriai_men!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -1393,8 +1399,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1466,8 +1472,15 @@
       <name val="Ariel"/>
       <charset val="186"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="186"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1490,8 +1503,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1523,12 +1542,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCACACA"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCACACA"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1560,16 +1590,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1618,7 +1654,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1651,9 +1687,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1686,6 +1739,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1861,68 +1931,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FM47"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="ET35" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="EI32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="ET44" sqref="ET44:FA46"/>
+      <selection pane="bottomRight" activeCell="ET45" sqref="ET45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="27" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="27" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="8" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="43" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="47" max="48" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="52" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="57" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="62" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="65" max="66" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="68" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="69" max="70" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="72" max="74" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="76" max="84" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="43" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="52" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="57" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="62" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="65" max="66" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="68" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="69" max="70" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="72" max="74" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="76" max="84" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:169" s="14" customFormat="1" ht="86.4">
+    <row r="1" spans="1:169" s="14" customFormat="1" ht="105">
       <c r="B1" s="14" t="s">
         <v>96</v>
       </c>
@@ -4959,7 +5029,7 @@
       </c>
       <c r="B7" s="2">
         <f t="shared" si="0"/>
-        <v>17654703097.117187</v>
+        <v>17654703097.117188</v>
       </c>
       <c r="C7" s="2">
         <v>217449719.8675487</v>
@@ -23730,7 +23800,7 @@
         <v>3186215</v>
       </c>
     </row>
-    <row r="44" spans="1:169">
+    <row r="44" spans="1:169" ht="15.75" thickBot="1">
       <c r="A44" s="1">
         <v>44013</v>
       </c>
@@ -24252,7 +24322,10 @@
       </c>
       <c r="EA44" s="5"/>
       <c r="EB44" s="5"/>
-      <c r="ET44" s="11"/>
+      <c r="ET44" s="3">
+        <v>952363</v>
+      </c>
+      <c r="EU44" s="16"/>
       <c r="EW44" s="11"/>
       <c r="EX44" s="11"/>
       <c r="FA44" s="11"/>
@@ -24285,7 +24358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24295,14 +24368,14 @@
       <selection pane="bottomRight" activeCell="U123" sqref="U123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="16.6640625" customWidth="1"/>
-    <col min="5" max="16" width="16.6640625" customWidth="1"/>
-    <col min="17" max="18" width="12.6640625" customWidth="1"/>
+    <col min="1" max="3" width="16.7109375" customWidth="1"/>
+    <col min="5" max="16" width="16.7109375" customWidth="1"/>
+    <col min="17" max="18" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="145.19999999999999">
+    <row r="1" spans="1:32" ht="127.5">
       <c r="B1" t="s">
         <v>99</v>
       </c>
@@ -36900,7 +36973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -36910,12 +36983,12 @@
       <selection pane="bottomRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="137.4" customHeight="1">
+    <row r="1" spans="1:26" ht="137.44999999999999" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -41962,7 +42035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -41972,12 +42045,12 @@
       <selection pane="bottomRight" activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="137.4" customHeight="1">
+    <row r="1" spans="1:26" ht="137.44999999999999" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -47023,7 +47096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -47033,9 +47106,9 @@
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -50572,19 +50645,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -54121,14 +54194,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="J1" t="s">
@@ -54592,7 +54665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -54602,12 +54675,12 @@
       <selection pane="bottomRight" activeCell="L1" sqref="L1:O44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="59.4" customHeight="1">
+    <row r="1" spans="1:18" ht="59.45" customHeight="1">
       <c r="B1" s="14" t="s">
         <v>427</v>
       </c>
